--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E187B7-C524-45F0-8AC3-3281C1912F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670F6CF-739B-4C5C-842B-10DDC1C2FBF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>gal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>bg34</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -204,10 +200,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>zou_lu_1 循环</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>换页</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -245,6 +237,14 @@
   </si>
   <si>
     <t>19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环zou_lu_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -918,19 +918,19 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -981,7 +981,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1054,13 +1054,13 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1085,13 +1085,13 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1281,13 +1281,13 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="3"/>
       <c r="Z25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1394,10 +1394,10 @@
         <v>22</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1425,7 +1425,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1453,7 +1453,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670F6CF-739B-4C5C-842B-10DDC1C2FBF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEE44AB-3DFD-4E86-A28E-6A9E9C139C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>adv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>haruhi 1 hide</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -399,9 +403,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -412,6 +413,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -700,144 +704,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="25.33203125" style="1" customWidth="1"/>
-    <col min="21" max="24" width="8.88671875" style="1"/>
-    <col min="25" max="25" width="14.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="1"/>
-    <col min="27" max="27" width="11.109375" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="19" width="8.875" style="1"/>
+    <col min="20" max="20" width="25.375" style="1" customWidth="1"/>
+    <col min="21" max="24" width="8.875" style="1"/>
+    <col min="25" max="25" width="14.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="11.125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="1" t="s">
         <v>4</v>
       </c>
@@ -866,57 +870,57 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
       <c r="S8" s="3" t="s">
         <v>52</v>
       </c>
@@ -933,126 +937,126 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="40.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1063,27 +1067,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1094,192 +1098,192 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
       <c r="S16" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1290,106 +1294,106 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="37.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="37.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="3"/>
       <c r="Z25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
       <c r="S26" s="3">
         <v>22</v>
       </c>
@@ -1400,116 +1404,117 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B16:R16"/>
     <mergeCell ref="A1:R3"/>
     <mergeCell ref="A4:R6"/>
     <mergeCell ref="B7:R7"/>
@@ -1525,11 +1530,13 @@
     <mergeCell ref="B13:R13"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel2RpyScript\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WHR\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEE44AB-3DFD-4E86-A28E-6A9E9C139C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D97E52-5AF2-4328-B0DB-B450228CE2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -403,6 +404,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -413,9 +417,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -704,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T29" sqref="A1:AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,128 +721,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="1" t="s">
         <v>4</v>
       </c>
@@ -874,53 +875,53 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="3" t="s">
         <v>52</v>
       </c>
@@ -939,49 +940,49 @@
     </row>
     <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="1" t="s">
@@ -990,73 +991,73 @@
     </row>
     <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1069,25 +1070,25 @@
     </row>
     <row r="14" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1100,190 +1101,190 @@
     </row>
     <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
       <c r="S16" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1298,25 +1299,25 @@
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
         <v>46</v>
@@ -1324,48 +1325,48 @@
     </row>
     <row r="24" spans="1:26" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="37.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="3"/>
       <c r="Z25" s="1" t="s">
         <v>47</v>
@@ -1375,25 +1376,25 @@
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="3">
         <v>22</v>
       </c>
@@ -1408,25 +1409,25 @@
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
         <v>49</v>
@@ -1436,25 +1437,25 @@
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
         <v>50</v>
@@ -1462,25 +1463,25 @@
     </row>
     <row r="29" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
         <v>55</v>
@@ -1488,33 +1489,35 @@
     </row>
     <row r="30" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
     <mergeCell ref="A1:R3"/>
     <mergeCell ref="A4:R6"/>
     <mergeCell ref="B7:R7"/>
@@ -1530,16 +1533,1030 @@
     <mergeCell ref="B13:R13"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B16:R16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E585A-3D72-480A-9FC9-E529E4853477}">
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AA29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="3">
+        <v>20</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="3">
+        <v>22</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WHR\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D97E52-5AF2-4328-B0DB-B450228CE2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AD1306-D8E9-46A2-966F-C8DA76AE6696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>旁白</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"喂，你们知道肾上腺素这种东西吗？"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -250,6 +246,14 @@
   </si>
   <si>
     <t>haruhi 1 hide</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"喂，你们知道\肾上腺素这种东西吗？"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"喂，你们知道%%%\\\\\\\%%%%肾上腺素这种东西吗？"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +710,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T29" sqref="A1:AA29"/>
+      <selection activeCell="B8" sqref="B8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,7 +908,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -923,25 +927,25 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -965,7 +969,7 @@
     <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -986,13 +990,13 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1016,7 +1020,7 @@
     <row r="12" spans="1:27" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1040,7 +1044,7 @@
     <row r="13" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1059,19 +1063,19 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1090,19 +1094,19 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1125,7 +1129,7 @@
     <row r="16" spans="1:27" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1150,7 +1154,7 @@
     <row r="17" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1173,7 +1177,7 @@
     <row r="18" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1196,7 +1200,7 @@
     <row r="19" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1219,7 +1223,7 @@
     <row r="20" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1242,7 +1246,7 @@
     <row r="21" spans="1:26" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1264,10 +1268,10 @@
     </row>
     <row r="22" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1286,13 +1290,13 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1300,7 +1304,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1320,13 +1324,13 @@
       <c r="R23" s="5"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1349,7 +1353,7 @@
     <row r="25" spans="1:26" ht="37.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1369,7 +1373,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="3"/>
       <c r="Z25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1377,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1399,10 +1403,10 @@
         <v>22</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1410,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1430,15 +1434,15 @@
       <c r="R27" s="5"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1458,13 +1462,13 @@
       <c r="R28" s="5"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1484,7 +1488,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1550,7 +1554,7 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA29"/>
+      <selection activeCell="B8" sqref="B8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1789,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1808,29 +1812,29 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1861,7 +1865,7 @@
     <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1894,7 +1898,7 @@
     <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1925,7 +1929,7 @@
     <row r="12" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1956,7 +1960,7 @@
     <row r="13" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1975,17 +1979,17 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -1993,7 +1997,7 @@
     <row r="14" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2012,10 +2016,10 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -2023,14 +2027,14 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2061,7 +2065,7 @@
     <row r="16" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2094,7 +2098,7 @@
     <row r="17" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2125,7 +2129,7 @@
     <row r="18" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2156,7 +2160,7 @@
     <row r="19" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2187,7 +2191,7 @@
     <row r="20" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2218,7 +2222,7 @@
     <row r="21" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2248,10 +2252,10 @@
     </row>
     <row r="22" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2270,17 +2274,17 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -2290,7 +2294,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2310,7 +2314,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -2323,7 +2327,7 @@
     <row r="24" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2354,7 +2358,7 @@
     <row r="25" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2380,7 +2384,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA25" s="1"/>
     </row>
@@ -2389,7 +2393,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2411,7 +2415,7 @@
         <v>22</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -2419,7 +2423,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA26" s="1"/>
     </row>
@@ -2428,7 +2432,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2448,7 +2452,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -2460,10 +2464,10 @@
     </row>
     <row r="28" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2483,7 +2487,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2496,7 +2500,7 @@
     <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2516,7 +2520,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -2537,11 +2541,6 @@
     <mergeCell ref="B25:R25"/>
     <mergeCell ref="B26:R26"/>
     <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
     <mergeCell ref="B21:R21"/>
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="B11:R11"/>
@@ -2549,14 +2548,20 @@
     <mergeCell ref="B13:R13"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B9:R9"/>
     <mergeCell ref="A1:R3"/>
     <mergeCell ref="A4:R6"/>
     <mergeCell ref="B7:R7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WHR\Excel2RpyScript\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D97E52-5AF2-4328-B0DB-B450228CE2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77C544-ED9D-417D-B790-6B062D6DD498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>haruhi 1 hide</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"只是不小心被石头绊了一下，\想不%到竟"然"差点'摔'了{下[去。"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1549,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E585A-3D72-480A-9FC9-E529E4853477}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2496,7 +2500,7 @@
     <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2537,11 +2541,6 @@
     <mergeCell ref="B25:R25"/>
     <mergeCell ref="B26:R26"/>
     <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
     <mergeCell ref="B21:R21"/>
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="B11:R11"/>
@@ -2549,12 +2548,17 @@
     <mergeCell ref="B13:R13"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B9:R9"/>
     <mergeCell ref="A1:R3"/>
     <mergeCell ref="A4:R6"/>
     <mergeCell ref="B7:R7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77C544-ED9D-417D-B790-6B062D6DD498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D04F607-950C-4493-91EE-A5D4E59C785A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>"只是不小心被石头绊了一下，\想不%到竟"然"差点'摔'了{下[去。"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test sustain</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -408,9 +420,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -421,6 +430,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T29" sqref="A1:AA29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,129 +736,129 @@
     <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="1" t="s">
         <v>4</v>
       </c>
@@ -874,58 +886,61 @@
       <c r="AA6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
       <c r="S8" s="3" t="s">
         <v>52</v>
       </c>
@@ -942,126 +957,129 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1072,27 +1090,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1103,192 +1121,195 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
       <c r="S16" s="3">
         <v>20</v>
       </c>
+      <c r="AB16" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1303,25 +1324,25 @@
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
         <v>46</v>
@@ -1329,48 +1350,48 @@
     </row>
     <row r="24" spans="1:26" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="37.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="3"/>
       <c r="Z25" s="1" t="s">
         <v>47</v>
@@ -1380,25 +1401,25 @@
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
       <c r="S26" s="3">
         <v>22</v>
       </c>
@@ -1413,25 +1434,25 @@
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
         <v>49</v>
@@ -1441,25 +1462,25 @@
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
         <v>50</v>
@@ -1467,25 +1488,25 @@
     </row>
     <row r="29" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
         <v>55</v>
@@ -1493,35 +1514,33 @@
     </row>
     <row r="30" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B16:R16"/>
     <mergeCell ref="A1:R3"/>
     <mergeCell ref="A4:R6"/>
     <mergeCell ref="B7:R7"/>
@@ -1537,11 +1556,13 @@
     <mergeCell ref="B13:R13"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1553,33 +1574,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E585A-3D72-480A-9FC9-E529E4853477}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:R29"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1591,24 +1612,24 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1620,24 +1641,24 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1649,26 +1670,26 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1680,24 +1701,24 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1709,24 +1730,24 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1759,29 +1780,29 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -1792,25 +1813,25 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
       <c r="S8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1833,25 +1854,25 @@
     </row>
     <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="1"/>
@@ -1864,25 +1885,25 @@
     </row>
     <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="1" t="s">
@@ -1897,25 +1918,25 @@
     </row>
     <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="1"/>
@@ -1928,25 +1949,25 @@
     </row>
     <row r="12" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="1"/>
@@ -1959,25 +1980,25 @@
     </row>
     <row r="13" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1996,25 +2017,25 @@
     </row>
     <row r="14" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="3" t="s">
         <v>52</v>
       </c>
@@ -2033,25 +2054,25 @@
     </row>
     <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
       <c r="S15" s="3"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -2064,25 +2085,25 @@
     </row>
     <row r="16" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
       <c r="S16" s="3">
         <v>20</v>
       </c>
@@ -2097,25 +2118,25 @@
     </row>
     <row r="17" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="3"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2128,25 +2149,25 @@
     </row>
     <row r="18" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="3"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2159,25 +2180,25 @@
     </row>
     <row r="19" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2190,25 +2211,25 @@
     </row>
     <row r="20" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="3"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -2221,25 +2242,25 @@
     </row>
     <row r="21" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="3"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -2254,25 +2275,25 @@
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="3" t="s">
         <v>42</v>
       </c>
@@ -2293,25 +2314,25 @@
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
         <v>46</v>
@@ -2326,25 +2347,25 @@
     </row>
     <row r="24" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="3"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -2357,25 +2378,25 @@
     </row>
     <row r="25" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="3"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2392,25 +2413,25 @@
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
       <c r="S26" s="3">
         <v>22</v>
       </c>
@@ -2431,25 +2452,25 @@
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
         <v>49</v>
@@ -2466,25 +2487,25 @@
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
         <v>50</v>
@@ -2499,25 +2520,25 @@
     </row>
     <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
         <v>55</v>
@@ -2533,14 +2554,12 @@
     <row r="30" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:R8"/>
     <mergeCell ref="B21:R21"/>
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="B11:R11"/>
@@ -2553,12 +2572,14 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="A4:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEE44AB-3DFD-4E86-A28E-6A9E9C139C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D04F607-950C-4493-91EE-A5D4E59C785A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -249,6 +250,22 @@
   </si>
   <si>
     <t>haruhi 1 hide</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"只是不小心被石头绊了一下，\想不%到竟"然"差点'摔'了{下[去。"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test sustain</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,7 +736,7 @@
     <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -741,7 +758,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -761,7 +778,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -781,7 +798,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -803,7 +820,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -823,7 +840,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -869,8 +886,11 @@
       <c r="AA6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -898,7 +918,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -937,7 +957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -960,8 +980,11 @@
       <c r="R9" s="4"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -988,7 +1011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -1012,7 +1035,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -1036,7 +1059,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -1067,7 +1090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -1098,7 +1121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
@@ -1121,7 +1144,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1144,6 +1167,9 @@
       <c r="R16" s="4"/>
       <c r="S16" s="3">
         <v>20</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1542,4 +1568,1020 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E585A-3D72-480A-9FC9-E529E4853477}">
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="3">
+        <v>20</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="3">
+        <v>22</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D04F607-950C-4493-91EE-A5D4E59C785A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEE44AB-3DFD-4E86-A28E-6A9E9C139C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -250,22 +249,6 @@
   </si>
   <si>
     <t>haruhi 1 hide</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"只是不小心被石头绊了一下，\想不%到竟"然"差点'摔'了{下[去。"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test sustain</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -719,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,7 +719,7 @@
     <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -758,7 +741,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -778,7 +761,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -798,7 +781,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -820,7 +803,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -840,7 +823,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -886,11 +869,8 @@
       <c r="AA6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -918,7 +898,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -957,7 +937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -980,11 +960,8 @@
       <c r="R9" s="4"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="AB9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -1011,7 +988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -1035,7 +1012,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -1059,7 +1036,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -1090,7 +1067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -1121,7 +1098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
@@ -1144,7 +1121,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:28" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1167,9 +1144,6 @@
       <c r="R16" s="4"/>
       <c r="S16" s="3">
         <v>20</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1568,1020 +1542,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E585A-3D72-480A-9FC9-E529E4853477}">
-  <dimension ref="A1:AA30"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="3">
-        <v>20</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="3">
-        <v>22</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-    </row>
-    <row r="28" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="A4:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D04F607-950C-4493-91EE-A5D4E59C785A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC550722-B58B-4A10-8E09-D15EF5265194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="67">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -266,6 +267,34 @@
   </si>
   <si>
     <t>test sustain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sheet 3喂，你们知道肾上腺素这种东西吗？"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sheet2 喂，你们知道肾上腺素这种东西吗？"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到sheet2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到sheet3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -393,6 +422,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -409,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -418,6 +484,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyAlignment="1">
@@ -432,7 +501,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,129 +811,129 @@
     <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="1" t="s">
         <v>4</v>
       </c>
@@ -889,58 +964,61 @@
       <c r="AB6" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AC6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="3" t="s">
         <v>52</v>
       </c>
@@ -957,129 +1035,129 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="AB9" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1090,27 +1168,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1121,50 +1199,50 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:28" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
       <c r="S16" s="3">
         <v>20</v>
       </c>
@@ -1172,397 +1250,451 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:29" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="3"/>
+      <c r="AC22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="3"/>
+      <c r="AC23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="3" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="1" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
+    <row r="26" spans="1:29" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" ht="37.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:29" ht="37.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="3"/>
-      <c r="Z25" s="1" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="3"/>
+      <c r="Z27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="3">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="3">
         <v>22</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="B8:R8"/>
     <mergeCell ref="B9:R9"/>
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="B16:R16"/>
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="A4:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1574,33 +1706,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E585A-3D72-480A-9FC9-E529E4853477}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1612,24 +1744,24 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1641,24 +1773,24 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1670,26 +1802,26 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1701,24 +1833,24 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1730,24 +1862,24 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1780,29 +1912,29 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -1813,25 +1945,25 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1854,25 +1986,25 @@
     </row>
     <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="1"/>
@@ -1885,25 +2017,25 @@
     </row>
     <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="1" t="s">
@@ -1918,25 +2050,25 @@
     </row>
     <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="1"/>
@@ -1949,25 +2081,25 @@
     </row>
     <row r="12" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="1"/>
@@ -1980,25 +2112,25 @@
     </row>
     <row r="13" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
         <v>42</v>
       </c>
@@ -2017,25 +2149,25 @@
     </row>
     <row r="14" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
         <v>52</v>
       </c>
@@ -2054,25 +2186,25 @@
     </row>
     <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="3"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -2085,25 +2217,25 @@
     </row>
     <row r="16" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
       <c r="S16" s="3">
         <v>20</v>
       </c>
@@ -2118,25 +2250,25 @@
     </row>
     <row r="17" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
       <c r="S17" s="3"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2149,25 +2281,25 @@
     </row>
     <row r="18" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="3"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2180,25 +2312,25 @@
     </row>
     <row r="19" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="3"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2211,25 +2343,25 @@
     </row>
     <row r="20" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="3"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -2242,25 +2374,25 @@
     </row>
     <row r="21" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="3"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -2275,25 +2407,25 @@
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="3" t="s">
         <v>42</v>
       </c>
@@ -2314,25 +2446,25 @@
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
         <v>46</v>
@@ -2347,25 +2479,25 @@
     </row>
     <row r="24" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="3"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -2378,25 +2510,25 @@
     </row>
     <row r="25" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="3"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2413,25 +2545,25 @@
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="3">
         <v>22</v>
       </c>
@@ -2452,25 +2584,25 @@
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
         <v>49</v>
@@ -2487,25 +2619,25 @@
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
         <v>50</v>
@@ -2520,25 +2652,25 @@
     </row>
     <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
         <v>55</v>
@@ -2554,12 +2686,14 @@
     <row r="30" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="A4:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
     <mergeCell ref="B21:R21"/>
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="B11:R11"/>
@@ -2572,6 +2706,1002 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:R8"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2917DEDF-14AC-40F8-82AA-F60608F1D3CD}">
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="3">
+        <v>20</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="3">
+        <v>22</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="26">
     <mergeCell ref="B28:R28"/>
     <mergeCell ref="B29:R29"/>
     <mergeCell ref="B22:R22"/>
@@ -2580,8 +3710,27 @@
     <mergeCell ref="B25:R25"/>
     <mergeCell ref="B26:R26"/>
     <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/示例表格.xlsx
+++ b/test/示例表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Excel2RpyScript\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProject\Excel2RpyScript\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC550722-B58B-4A10-8E09-D15EF5265194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0318139B-B28D-4D9C-95BB-16098F676D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
   <si>
     <t>角色</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"只是不小心被石头绊了一下，想不到竟然差点摔了下去。"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>nvl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -262,14 +258,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test sustain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"sheet 3喂，你们知道肾上腺素这种东西吗？"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -282,19 +270,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>sheet2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到sheet2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到sheet3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet3</t>
+    <t>春日bbbb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到Sheet2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到Sheet3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaabv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/test1.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/haruhi 1.png</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -794,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -811,7 +823,7 @@
     <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -833,7 +845,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -853,7 +865,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -873,7 +885,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -895,7 +907,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -915,7 +927,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -962,13 +974,16 @@
         <v>10</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1011,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1020,22 +1035,22 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1058,11 +1073,8 @@
       <c r="R9" s="5"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="AB9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1086,10 +1098,10 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -1113,7 +1125,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="40.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
         <v>19</v>
@@ -1137,7 +1149,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -1159,16 +1171,16 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1190,16 +1202,16 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -1222,7 +1234,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:29" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
         <v>23</v>
@@ -1246,11 +1258,8 @@
       <c r="S16" s="3">
         <v>20</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
         <v>24</v>
@@ -1273,7 +1282,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
         <v>25</v>
@@ -1296,8 +1305,10 @@
       <c r="R18" s="5"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:30" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1318,9 +1329,14 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="AD19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
@@ -1342,7 +1358,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
         <v>28</v>
@@ -1365,10 +1381,10 @@
       <c r="R21" s="5"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1391,10 +1407,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1414,282 +1430,27 @@
       <c r="R23" s="11"/>
       <c r="S23" s="3"/>
       <c r="AC23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="3"/>
-    </row>
-    <row r="27" spans="1:29" ht="37.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="3"/>
-      <c r="Z27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="3">
-        <v>22</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="3"/>
-    </row>
-    <row r="33" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B22:R22"/>
+  <mergeCells count="20">
     <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
     <mergeCell ref="A1:R3"/>
     <mergeCell ref="A4:R6"/>
     <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B25:R25"/>
     <mergeCell ref="B17:R17"/>
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B20:R20"/>
     <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B24:R24"/>
     <mergeCell ref="B11:R11"/>
     <mergeCell ref="B12:R12"/>
     <mergeCell ref="B13:R13"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B22:R22"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="B8:R8"/>
     <mergeCell ref="B9:R9"/>
@@ -1704,15 +1465,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E585A-3D72-480A-9FC9-E529E4853477}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:R8"/>
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1743,7 +1504,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1772,7 +1533,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1801,7 +1562,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1832,7 +1593,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1861,7 +1622,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1907,8 +1668,11 @@
       <c r="AA6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1941,12 +1705,12 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1965,26 +1729,29 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -2015,7 +1782,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -2048,7 +1815,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -2079,7 +1846,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
         <v>19</v>
@@ -2110,7 +1877,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -2132,22 +1899,22 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -2169,10 +1936,10 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -2180,11 +1947,11 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -2215,7 +1982,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
         <v>23</v>
@@ -2248,7 +2015,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
         <v>24</v>
@@ -2279,7 +2046,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
         <v>25</v>
@@ -2310,7 +2077,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -2341,7 +2108,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
         <v>27</v>
@@ -2372,7 +2139,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
         <v>28</v>
@@ -2403,9 +2170,9 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>30</v>
@@ -2427,22 +2194,25 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2467,7 +2237,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -2477,7 +2247,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="5" t="s">
         <v>32</v>
@@ -2508,7 +2278,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
         <v>33</v>
@@ -2537,11 +2307,11 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2568,7 +2338,7 @@
         <v>22</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -2576,11 +2346,11 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +2375,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -2615,7 +2385,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -2640,7 +2410,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2650,10 +2420,10 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2673,7 +2443,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -2683,7 +2453,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="B28:R28"/>
@@ -2722,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2917DEDF-14AC-40F8-82AA-F60608F1D3CD}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:R8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2962,7 +2732,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2981,22 +2751,22 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="1"/>
     </row>
@@ -3148,17 +2918,17 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -3185,10 +2955,10 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -3196,7 +2966,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA14" s="1"/>
     </row>
@@ -3421,7 +3191,7 @@
     </row>
     <row r="22" spans="1:27" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>30</v>
@@ -3443,17 +3213,17 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -3483,7 +3253,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="3"/>
       <c r="T23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -3553,7 +3323,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA25" s="1"/>
     </row>
@@ -3584,7 +3354,7 @@
         <v>22</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -3592,7 +3362,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA26" s="1"/>
     </row>
@@ -3621,7 +3391,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="3"/>
       <c r="T27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -3656,7 +3426,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="3"/>
       <c r="T28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -3669,7 +3439,7 @@
     <row r="29" spans="1:27" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -3689,7 +3459,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -3710,11 +3480,6 @@
     <mergeCell ref="B25:R25"/>
     <mergeCell ref="B26:R26"/>
     <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
     <mergeCell ref="B21:R21"/>
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="B11:R11"/>
@@ -3722,12 +3487,17 @@
     <mergeCell ref="B13:R13"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B9:R9"/>
     <mergeCell ref="A1:R3"/>
     <mergeCell ref="A4:R6"/>
     <mergeCell ref="B7:R7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
